--- a/src/analysis_examples/circadb/results_jtk/cosinor_10372891_srgap1_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10372891_srgap1_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.1834350997358538, 0.30203434501801896]</t>
+          <t>[0.18201066753258427, 0.3034587772212885]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>2.999929393787681e-08</v>
+        <v>4.427517463767572e-08</v>
       </c>
       <c r="N2" t="n">
-        <v>2.999929393787681e-08</v>
+        <v>4.427517463767572e-08</v>
       </c>
       <c r="O2" t="n">
         <v>-1.559789745926464</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.419429678721426, 0.4966358985737185]</t>
+          <t>[0.41942883132469083, 0.49663674597045365]</t>
         </is>
       </c>
       <c r="U2" t="n">
